--- a/BalanceSheet/MRK_bal.xlsx
+++ b/BalanceSheet/MRK_bal.xlsx
@@ -4718,7 +4718,7 @@
         <v>20566000000.0</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>16900000000.0</v>
+        <v>16132000000.0</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>14659000000.0</v>
@@ -4847,7 +4847,7 @@
         <v>27998000000.0</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>27350000000.0</v>
+        <v>26582000000.0</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>22677000000.0</v>
